--- a/Color Form Evaluation.xlsx
+++ b/Color Form Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satyam Dubey\Desktop\Indian Statistical Institute Report\Color Normalization Dataset\UCSB_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32EB1320-FFD9-46AD-AB20-D096D254720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4FAE6A-6BBF-44E4-8135-B6175331A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0654DAA-120B-402F-A5DC-45CE8A3C7A69}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>SR.no</t>
   </si>
@@ -168,6 +168,69 @@
   </si>
   <si>
     <t>ytma49_072303_malignant2_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111003_benign1_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111003_benign2_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111003_benign3_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111003_malignant1_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111003_malignant2_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111003_malignant3_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111303_benign1_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111303_benign2_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111303_benign3_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111303_malignant1_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111303_malignant2_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma49_111303_malignant3_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma55_030603_benign1_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma55_030603_benign2_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma55_030603_benign3_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma55_030603_benign4_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma55_030603_benign5_ccd.tif</t>
+  </si>
+  <si>
+    <t>ytma55_030603_benign6_ccd.tif</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standard Devation</t>
   </si>
 </sst>
 </file>
@@ -519,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13FF48-EC4F-4D6E-8B56-AAF349B7AD70}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,6 +620,15 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>0.390196078431372</v>
+      </c>
+      <c r="D2">
+        <v>0.80784313725490198</v>
+      </c>
+      <c r="E2">
+        <v>0.57254901960784299</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -565,6 +637,15 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>0.60784313725490102</v>
+      </c>
+      <c r="D3">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="E3">
+        <v>0.44313725490195999</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -573,6 +654,15 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>0.65098039215686199</v>
+      </c>
+      <c r="D4">
+        <v>0.78431372549019596</v>
+      </c>
+      <c r="E4">
+        <v>0.474509803921568</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -581,6 +671,15 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5">
+        <v>0.55686274509803901</v>
+      </c>
+      <c r="D5">
+        <v>0.73725490196078403</v>
+      </c>
+      <c r="E5">
+        <v>0.52941176470588203</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -589,6 +688,15 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6">
+        <v>0.337254901960784</v>
+      </c>
+      <c r="D6">
+        <v>0.99607843137254903</v>
+      </c>
+      <c r="E6">
+        <v>0.545098039215686</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -597,6 +705,15 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>0.38431372549019599</v>
+      </c>
+      <c r="D7">
+        <v>0.96470588235294097</v>
+      </c>
+      <c r="E7">
+        <v>0.56862745098039202</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -605,6 +722,15 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8">
+        <v>0.55294117647058805</v>
+      </c>
+      <c r="D8">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E8">
+        <v>0.45882352941176402</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -613,6 +739,15 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9">
+        <v>0.60392156862745106</v>
+      </c>
+      <c r="D9">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="E9">
+        <v>0.48627450980392101</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -621,6 +756,15 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10">
+        <v>0.53725490196078396</v>
+      </c>
+      <c r="D10">
+        <v>0.22440944881889699</v>
+      </c>
+      <c r="E10">
+        <v>0.454901960784313</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -629,6 +773,15 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>0.584313725490196</v>
+      </c>
+      <c r="D11">
+        <v>0.97647058823529398</v>
+      </c>
+      <c r="E11">
+        <v>0.55294117647058805</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -637,6 +790,15 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12">
+        <v>0.50196078431372504</v>
+      </c>
+      <c r="D12">
+        <v>0.81286549707602296</v>
+      </c>
+      <c r="E12">
+        <v>0.49019607843137197</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -645,6 +807,15 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13">
+        <v>0.50196078431372504</v>
+      </c>
+      <c r="D13">
+        <v>0.75686274509803897</v>
+      </c>
+      <c r="E13">
+        <v>0.45882352941176402</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -653,6 +824,15 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="C14">
+        <v>0.67450980392156801</v>
+      </c>
+      <c r="D14">
+        <v>0.77254901960784295</v>
+      </c>
+      <c r="E14">
+        <v>0.48627450980392101</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -661,6 +841,15 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15">
+        <v>0.63137254901960704</v>
+      </c>
+      <c r="D15">
+        <v>0.76862745098039198</v>
+      </c>
+      <c r="E15">
+        <v>0.49803921568627402</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -669,298 +858,800 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>0.58039215686274503</v>
+      </c>
+      <c r="D16">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E16">
+        <v>0.474509803921568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>0.70196078431372499</v>
+      </c>
+      <c r="D17">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="E17">
+        <v>0.52549019607843095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>0.65490196078431295</v>
+      </c>
+      <c r="D18">
+        <v>0.75686274509803897</v>
+      </c>
+      <c r="E18">
+        <v>0.50980392156862697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>0.63921568627450898</v>
+      </c>
+      <c r="D19">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E19">
+        <v>0.51372549019607805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>0.63529411764705801</v>
+      </c>
+      <c r="D20">
+        <v>0.16470588235294101</v>
+      </c>
+      <c r="E20">
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>0.61568627450980395</v>
+      </c>
+      <c r="D21">
+        <v>0.545098039215686</v>
+      </c>
+      <c r="E21">
+        <v>0.50196078431372504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>0.54901960784313697</v>
+      </c>
+      <c r="D22">
+        <v>0.792156862745098</v>
+      </c>
+      <c r="E22">
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="D23">
+        <v>0.97254901960784301</v>
+      </c>
+      <c r="E23">
+        <v>0.54901960784313697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="D24">
+        <v>0.96470588235294097</v>
+      </c>
+      <c r="E24">
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="D25">
+        <v>0.99607843137254903</v>
+      </c>
+      <c r="E25">
+        <v>0.54117647058823504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>0.58039215686274503</v>
+      </c>
+      <c r="D26">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E26">
+        <v>0.474509803921568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>0.60784313725490102</v>
+      </c>
+      <c r="D27">
+        <v>6.2745098039215602E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.44313725490195999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>0.55686274509803901</v>
+      </c>
+      <c r="D28">
+        <v>0.77254901960784295</v>
+      </c>
+      <c r="E28">
+        <v>0.440944881889763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>0.64313725490196005</v>
+      </c>
+      <c r="D29">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E29">
+        <v>0.52156862745097998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>0.6</v>
+      </c>
+      <c r="D30">
+        <v>0.77254901960784295</v>
+      </c>
+      <c r="E30">
+        <v>0.45059288537549402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>0.64313725490196005</v>
+      </c>
+      <c r="D31">
+        <v>0.45098039215686198</v>
+      </c>
+      <c r="E31">
+        <v>0.48235294117646998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>0.63529411764705801</v>
+      </c>
+      <c r="D32">
+        <v>2.3529411764705799E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.45882352941176402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>0.65098039215686199</v>
+      </c>
+      <c r="D33">
+        <v>0.75686274509803897</v>
+      </c>
+      <c r="E33">
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>0.68235294117647005</v>
+      </c>
+      <c r="D34">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="E34">
+        <v>0.51372549019607805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>0.59215686274509804</v>
+      </c>
+      <c r="D35">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="E35">
+        <v>0.49803921568627402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="D36">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="E36">
+        <v>0.56862745098039202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>0.61960784313725403</v>
+      </c>
+      <c r="D37">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E37">
+        <v>0.51372549019607805</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="D38">
+        <v>0.77254901960784295</v>
+      </c>
+      <c r="E38">
+        <v>0.46274509803921499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>0.63137254901960704</v>
+      </c>
+      <c r="D39">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E39">
+        <v>0.47058823529411697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>0.70980392156862704</v>
+      </c>
+      <c r="D40">
+        <v>0.74901960784313704</v>
+      </c>
+      <c r="E40">
+        <v>0.54117647058823504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>0.62745098039215597</v>
+      </c>
+      <c r="D41">
+        <v>0.76862745098039198</v>
+      </c>
+      <c r="E41">
+        <v>0.51372549019607805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>0.56470588235294095</v>
+      </c>
+      <c r="D42">
+        <v>0.43137254901960698</v>
+      </c>
+      <c r="E42">
+        <v>0.44705882352941101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>0.62745098039215597</v>
+      </c>
+      <c r="D43">
+        <v>0.46274509803921499</v>
+      </c>
+      <c r="E43">
+        <v>0.51372549019607805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>0.65490196078431295</v>
+      </c>
+      <c r="D44">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E44">
+        <v>0.52941176470588203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>0.56078431372548998</v>
+      </c>
+      <c r="D45">
+        <v>0.98431372549019602</v>
+      </c>
+      <c r="E45">
+        <v>0.55686274509803901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>0.57254901960784299</v>
+      </c>
+      <c r="D46">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="E46">
+        <v>0.50588235294117601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>0.53725490196078396</v>
+      </c>
+      <c r="D47">
+        <v>0.59437751004016004</v>
+      </c>
+      <c r="E47">
+        <v>0.48235294117646998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>0.65490196078431295</v>
+      </c>
+      <c r="D48">
+        <v>0.23921568627450901</v>
+      </c>
+      <c r="E48">
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>0.57254901960784299</v>
+      </c>
+      <c r="D49">
+        <v>0.341269841269841</v>
+      </c>
+      <c r="E49">
+        <v>0.47058823529411697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>0.57254901960784299</v>
+      </c>
+      <c r="D50">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.42745098039215601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>0.60784313725490102</v>
+      </c>
+      <c r="D51">
+        <v>0.99607843137254903</v>
+      </c>
+      <c r="E51">
+        <v>0.54117647058823504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>0.623529411764705</v>
+      </c>
+      <c r="D52">
+        <v>0.57707509881422903</v>
+      </c>
+      <c r="E52">
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>0.60784313725490102</v>
+      </c>
+      <c r="D53">
+        <v>0.23921568627450901</v>
+      </c>
+      <c r="E53">
+        <v>0.49019607843137197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>0.63921568627450898</v>
+      </c>
+      <c r="D54">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="E54">
+        <v>0.55294117647058805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>0.63529411764705801</v>
+      </c>
+      <c r="D55">
+        <v>0.99607843137254903</v>
+      </c>
+      <c r="E55">
+        <v>0.52156862745097998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>0.64705882352941102</v>
+      </c>
+      <c r="D56">
+        <v>0.83783783783783705</v>
+      </c>
+      <c r="E56">
+        <v>0.52941176470588203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>0.67450980392156801</v>
+      </c>
+      <c r="D57">
+        <v>0.99607843137254903</v>
+      </c>
+      <c r="E57">
+        <v>0.53725490196078396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>0.61568627450980395</v>
+      </c>
+      <c r="D58">
+        <v>0.77254901960784295</v>
+      </c>
+      <c r="E58">
+        <v>0.47058823529411697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>0.662745098039215</v>
+      </c>
+      <c r="D59">
+        <v>0.55686274509803901</v>
+      </c>
+      <c r="E59">
+        <v>0.50196078431372504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <f>AVERAGE(C2:C59)</f>
+        <v>0.59334009465855231</v>
+      </c>
+      <c r="D61">
+        <f>AVERAGE(D2:D59)</f>
+        <v>0.70358607063107026</v>
+      </c>
+      <c r="E61">
+        <f>AVERAGE(E2:E59)</f>
+        <v>0.50299811566278751</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <f>MEDIAN(C2:C59)</f>
+        <v>0.60784313725490102</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:E63" si="0">MEDIAN(D2:D59)</f>
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>0.51176470588235246</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <f>STDEVA(C2:C59)</f>
+        <v>7.2804651625864608E-2</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:E65" si="1">STDEVA(D2:D59)</f>
+        <v>0.24129290712981699</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>3.6454586403162612E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Color Form Evaluation.xlsx
+++ b/Color Form Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satyam Dubey\Desktop\Indian Statistical Institute Report\Color Normalization Dataset\UCSB_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4FAE6A-6BBF-44E4-8135-B6175331A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61174720-D72D-420E-A965-A4A83E7C0E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0654DAA-120B-402F-A5DC-45CE8A3C7A69}"/>
+    <workbookView xWindow="3520" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{D0654DAA-120B-402F-A5DC-45CE8A3C7A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Color Form Evaluation.xlsx
+++ b/Color Form Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satyam Dubey\Desktop\Indian Statistical Institute Report\Color Normalization Dataset\UCSB_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61174720-D72D-420E-A965-A4A83E7C0E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2595B76-7E38-429F-9566-9E1CB1CF102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{D0654DAA-120B-402F-A5DC-45CE8A3C7A69}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0654DAA-120B-402F-A5DC-45CE8A3C7A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>SR.no</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>Standard Devation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Better Color Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rgb</t>
+  </si>
+  <si>
+    <t>Color Forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSI</t>
   </si>
 </sst>
 </file>
@@ -283,6 +307,1110 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" baseline="0">
+                <a:latin typeface="Bahnschrift Light SemiCondensed" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Quantative Analysis of  Color Normlaized Forms</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1800">
+              <a:latin typeface="Bahnschrift Light SemiCondensed" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8910357337915557E-2"/>
+          <c:y val="0.87253357973374668"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19587774739090053"/>
+          <c:y val="4.4779120274653354E-2"/>
+          <c:w val="0.48633408323959504"/>
+          <c:h val="0.81302377010106597"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7626-4C9F-8B34-3ED3F4D9E5AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7626-4C9F-8B34-3ED3F4D9E5AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.1555555555555559E-2"/>
+                      <c:h val="5.1875182268883054E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7626-4C9F-8B34-3ED3F4D9E5AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v> RGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> HSI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Lab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7626-4C9F-8B34-3ED3F4D9E5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85124963784609686"/>
+          <c:y val="0.13228315092657578"/>
+          <c:w val="0.13439351747696082"/>
+          <c:h val="0.60841085281820473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>455706</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A479E60-1651-3D0C-503C-5FA016F648B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13FF48-EC4F-4D6E-8B56-AAF349B7AD70}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,9 +1722,12 @@
     <col min="3" max="3" width="21.6328125" customWidth="1"/>
     <col min="4" max="4" width="21.453125" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="24.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +1743,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -629,8 +1769,17 @@
       <c r="E2">
         <v>0.57254901960784299</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -646,8 +1795,17 @@
       <c r="E3">
         <v>0.44313725490195999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -663,8 +1821,17 @@
       <c r="E4">
         <v>0.474509803921568</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -680,8 +1847,11 @@
       <c r="E5">
         <v>0.52941176470588203</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -697,8 +1867,11 @@
       <c r="E6">
         <v>0.545098039215686</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -714,8 +1887,11 @@
       <c r="E7">
         <v>0.56862745098039202</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -731,8 +1907,11 @@
       <c r="E8">
         <v>0.45882352941176402</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -748,8 +1927,11 @@
       <c r="E9">
         <v>0.48627450980392101</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -765,8 +1947,11 @@
       <c r="E10">
         <v>0.454901960784313</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -782,8 +1967,11 @@
       <c r="E11">
         <v>0.55294117647058805</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -799,8 +1987,11 @@
       <c r="E12">
         <v>0.49019607843137197</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -816,8 +2007,11 @@
       <c r="E13">
         <v>0.45882352941176402</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -833,8 +2027,11 @@
       <c r="E14">
         <v>0.48627450980392101</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -850,8 +2047,11 @@
       <c r="E15">
         <v>0.49803921568627402</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -867,8 +2067,11 @@
       <c r="E16">
         <v>0.474509803921568</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -884,8 +2087,11 @@
       <c r="E17">
         <v>0.52549019607843095</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -901,8 +2107,11 @@
       <c r="E18">
         <v>0.50980392156862697</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -918,8 +2127,11 @@
       <c r="E19">
         <v>0.51372549019607805</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -935,8 +2147,11 @@
       <c r="E20">
         <v>0.51764705882352902</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -952,8 +2167,11 @@
       <c r="E21">
         <v>0.50196078431372504</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -969,8 +2187,11 @@
       <c r="E22">
         <v>0.51764705882352902</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -986,8 +2207,11 @@
       <c r="E23">
         <v>0.54901960784313697</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1003,8 +2227,11 @@
       <c r="E24">
         <v>0.51764705882352902</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1020,8 +2247,11 @@
       <c r="E25">
         <v>0.54117647058823504</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1037,8 +2267,11 @@
       <c r="E26">
         <v>0.474509803921568</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1054,8 +2287,11 @@
       <c r="E27">
         <v>0.44313725490195999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1071,8 +2307,11 @@
       <c r="E28">
         <v>0.440944881889763</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1088,8 +2327,11 @@
       <c r="E29">
         <v>0.52156862745097998</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1105,8 +2347,11 @@
       <c r="E30">
         <v>0.45059288537549402</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1122,8 +2367,11 @@
       <c r="E31">
         <v>0.48235294117646998</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1139,8 +2387,11 @@
       <c r="E32">
         <v>0.45882352941176402</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1156,8 +2407,11 @@
       <c r="E33">
         <v>0.51764705882352902</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1173,8 +2427,11 @@
       <c r="E34">
         <v>0.51372549019607805</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1190,8 +2447,11 @@
       <c r="E35">
         <v>0.49803921568627402</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1207,8 +2467,11 @@
       <c r="E36">
         <v>0.56862745098039202</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1224,8 +2487,11 @@
       <c r="E37">
         <v>0.51372549019607805</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1241,8 +2507,11 @@
       <c r="E38">
         <v>0.46274509803921499</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1258,8 +2527,11 @@
       <c r="E39">
         <v>0.47058823529411697</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1275,8 +2547,11 @@
       <c r="E40">
         <v>0.54117647058823504</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1292,8 +2567,11 @@
       <c r="E41">
         <v>0.51372549019607805</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1309,8 +2587,11 @@
       <c r="E42">
         <v>0.44705882352941101</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1326,8 +2607,11 @@
       <c r="E43">
         <v>0.51372549019607805</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1343,8 +2627,11 @@
       <c r="E44">
         <v>0.52941176470588203</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1360,8 +2647,11 @@
       <c r="E45">
         <v>0.55686274509803901</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1377,8 +2667,11 @@
       <c r="E46">
         <v>0.50588235294117601</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1394,8 +2687,11 @@
       <c r="E47">
         <v>0.48235294117646998</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1411,8 +2707,11 @@
       <c r="E48">
         <v>0.51764705882352902</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1428,8 +2727,11 @@
       <c r="E49">
         <v>0.47058823529411697</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1445,8 +2747,11 @@
       <c r="E50">
         <v>0.42745098039215601</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1462,8 +2767,11 @@
       <c r="E51">
         <v>0.54117647058823504</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1479,8 +2787,11 @@
       <c r="E52">
         <v>0.51764705882352902</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1496,8 +2807,11 @@
       <c r="E53">
         <v>0.49019607843137197</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1513,8 +2827,11 @@
       <c r="E54">
         <v>0.55294117647058805</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1530,8 +2847,11 @@
       <c r="E55">
         <v>0.52156862745097998</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1547,8 +2867,11 @@
       <c r="E56">
         <v>0.52941176470588203</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1564,8 +2887,11 @@
       <c r="E57">
         <v>0.53725490196078396</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1581,8 +2907,11 @@
       <c r="E58">
         <v>0.47058823529411697</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1598,8 +2927,11 @@
       <c r="E59">
         <v>0.50196078431372504</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>63</v>
       </c>
@@ -1616,7 +2948,7 @@
         <v>0.50299811566278751</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>64</v>
       </c>
@@ -1653,5 +2985,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>